--- a/Graphs for Report.xlsx
+++ b/Graphs for Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Krithik\Documents\GitHub\ee209-2020-project-team02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A7A4B1F-D303-43E1-B3D6-33B63732B2A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B388DB-F23B-4D7E-957D-EBE4DCEFD891}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D31E458-EF34-49A4-9E1D-C32283C7CB9A}"/>
   </bookViews>
@@ -136,12 +136,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                    <a:lumMod val="95000"/>
                   </a:schemeClr>
                 </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -167,12 +174,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -195,40 +209,62 @@
             <c:v>ADC Voltage</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
             </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="3"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst>
-                <a:glow rad="63500">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="175000"/>
-                    <a:alpha val="25000"/>
-                  </a:schemeClr>
-                </a:glow>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
               </a:effectLst>
             </c:spPr>
           </c:marker>
@@ -239,10 +275,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>-6.06</c:v>
+                  <c:v>8.15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.100000000000001</c:v>
+                  <c:v>13.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>18.399999999999999</c:v>
@@ -266,7 +302,7 @@
                   <c:v>5.34</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-2.72</c:v>
+                  <c:v>-1.49</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>-8.07</c:v>
@@ -281,7 +317,7 @@
                   <c:v>-21.1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-21.7</c:v>
+                  <c:v>-21.6</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>-20.100000000000001</c:v>
@@ -327,10 +363,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                  <a:alpha val="75000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -345,7 +380,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="lt1">
                         <a:lumMod val="75000"/>
@@ -376,7 +411,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="lt1">
                       <a:lumMod val="75000"/>
@@ -396,8 +431,12 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -435,10 +474,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                  <a:alpha val="75000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -453,7 +491,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="lt1">
                         <a:lumMod val="75000"/>
@@ -484,7 +522,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="lt1">
                       <a:lumMod val="75000"/>
@@ -511,7 +549,6 @@
                 <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -547,7 +584,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -588,20 +625,28 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -644,12 +689,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                    <a:lumMod val="95000"/>
                   </a:schemeClr>
                 </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -675,12 +727,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -703,40 +762,62 @@
             <c:v>ADC Current</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent2">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
             </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="3"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst>
-                <a:glow rad="63500">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="175000"/>
-                    <a:alpha val="25000"/>
-                  </a:schemeClr>
-                </a:glow>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
               </a:effectLst>
             </c:spPr>
           </c:marker>
@@ -831,6 +912,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -838,7 +933,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="lt1">
                         <a:lumMod val="75000"/>
@@ -853,7 +948,6 @@
                   <a:rPr lang="en-NZ"/>
                   <a:t>Data Points</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-NZ" baseline="0"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -870,7 +964,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="lt1">
                       <a:lumMod val="75000"/>
@@ -890,8 +984,12 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -929,10 +1027,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                  <a:alpha val="75000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -947,7 +1044,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="lt1">
                         <a:lumMod val="75000"/>
@@ -960,13 +1057,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-NZ"/>
-                  <a:t>Current,</a:t>
+                  <a:t>Current, A</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-NZ" baseline="0"/>
-                  <a:t> A</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-NZ"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -983,7 +1075,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="lt1">
                       <a:lumMod val="75000"/>
@@ -1010,7 +1102,6 @@
                 <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1046,7 +1137,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1087,20 +1178,28 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -3643,1082 +3742,6 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="15000"/>
-        <a:lumOff val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="139700">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="14000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:lumMod val="60000"/>
-          <a:lumOff val="40000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-            <a:alpha val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="15000"/>
-        <a:lumOff val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="139700">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="14000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:lumMod val="60000"/>
-          <a:lumOff val="40000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-            <a:alpha val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5220,7 +4243,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5722,7 +4745,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6224,20 +5247,1024 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>252412</xdr:colOff>
+      <xdr:colOff>252413</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:rowOff>166686</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>358020</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>24848</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6264,16 +6291,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>252412</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>180881</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>17450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>454321</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6712,8 +6739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB5D2BA0-9362-4A35-A13E-FD63B2012518}">
   <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Z29" sqref="Z29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6739,7 +6766,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>-6.06</v>
+        <v>8.15</v>
       </c>
       <c r="B2">
         <v>0.06</v>
@@ -6747,7 +6774,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>16.100000000000001</v>
+        <v>13.9</v>
       </c>
       <c r="B3">
         <v>0.16</v>
@@ -6811,7 +6838,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>-2.72</v>
+        <v>-1.49</v>
       </c>
       <c r="B11">
         <v>0.02</v>
@@ -6851,7 +6878,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>-21.7</v>
+        <v>-21.6</v>
       </c>
       <c r="B16">
         <v>-0.28000000000000003</v>

--- a/Graphs for Report.xlsx
+++ b/Graphs for Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Krithik\Documents\GitHub\ee209-2020-project-team02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B388DB-F23B-4D7E-957D-EBE4DCEFD891}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87049B1-7436-4C17-81B9-2411D213A339}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D31E458-EF34-49A4-9E1D-C32283C7CB9A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>Current</t>
   </si>
@@ -6327,16 +6327,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>177614</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>115140</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>895350</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1007409</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6363,16 +6363,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>188819</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>166408</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>857250</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>72838</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>52108</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6401,16 +6401,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>22413</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>179293</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>885825</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>706532</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>64993</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6737,16 +6737,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB5D2BA0-9362-4A35-A13E-FD63B2012518}">
-  <dimension ref="A1:I96"/>
+  <dimension ref="A1:I147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Z29" sqref="Z29"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R87" sqref="R87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.140625" customWidth="1"/>
     <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
@@ -8570,6 +8570,259 @@
         <v>3.0000000000000249E-2</v>
       </c>
     </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>3</v>
+      </c>
+      <c r="B98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B105">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B106">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B107">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B108">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B109">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B110">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B111">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B112">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B113">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B114">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B115">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B116">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B117">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B118">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B119">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B120">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B121">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B122">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B123">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B124">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B125">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B126">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B127">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B128">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B129">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B130">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B131">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B132">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B133">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B134">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B135">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B136">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B137">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B138">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B139">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B140">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B141">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B142">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B143">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B144">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B145">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B146">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B147">
+        <v>12.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Graphs for Report.xlsx
+++ b/Graphs for Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Krithik\Documents\GitHub\ee209-2020-project-team02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\GitHub\ee209-2020-project-team02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87049B1-7436-4C17-81B9-2411D213A339}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3EA6FE8-C435-4ECA-A7E3-5BCD3525FD0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D31E458-EF34-49A4-9E1D-C32283C7CB9A}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{6D31E458-EF34-49A4-9E1D-C32283C7CB9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Current</t>
   </si>
@@ -62,18 +61,48 @@
   <si>
     <t>Ideal Peak Current x (√2)</t>
   </si>
+  <si>
+    <t>Ideal Vrms</t>
+  </si>
+  <si>
+    <t>%Error</t>
+  </si>
+  <si>
+    <t>Ideal Cpk</t>
+  </si>
+  <si>
+    <t>Ideal P</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -96,8 +125,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3575,6 +3613,4328 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>%Error vs Ideal</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> RMS Voltage</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.6775371828521436E-2"/>
+          <c:y val="0.17171296296296298"/>
+          <c:w val="0.88389129483814521"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$48:$M$126</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="79"/>
+                <c:pt idx="0">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>14.3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>14.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>14.3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>14.6</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>14.6</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>14.6</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>14.7</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>14.7</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>14.7</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>15.1</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>15.1</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>15.1</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>15.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$48:$N$126</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="79"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-F7B9-4DA0-8898-709A50305D1C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$48:$M$126</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="79"/>
+                <c:pt idx="0">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>14.3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>14.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>14.3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>14.6</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>14.6</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>14.6</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>14.7</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>14.7</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>14.7</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>15.1</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>15.1</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>15.1</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>15.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$48:$N$126</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="79"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-F7B9-4DA0-8898-709A50305D1C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$48:$M$126</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="79"/>
+                <c:pt idx="0">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>14.3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>14.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>14.3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>14.6</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>14.6</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>14.6</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>14.7</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>14.7</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>14.7</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>15.1</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>15.1</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>15.1</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>15.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$48:$N$126</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="79"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-F7B9-4DA0-8898-709A50305D1C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$48:$M$126</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="79"/>
+                <c:pt idx="0">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>14.3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>14.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>14.3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>14.6</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>14.6</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>14.6</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>14.7</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>14.7</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>14.7</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>15.1</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>15.1</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>15.1</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>15.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$48:$N$126</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="79"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-F7B9-4DA0-8898-709A50305D1C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="131775887"/>
+        <c:axId val="123416895"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="131775887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>RMS Voltage (V)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.45993226977813034"/>
+              <c:y val="0.94749728107191022"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="123416895"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="123416895"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>%Error</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="131775887"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>%Error vs Ideal</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Peak Current</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.6775371828521436E-2"/>
+          <c:y val="0.17171296296296298"/>
+          <c:w val="0.88389129483814521"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$U$48:$U$96</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>0.25455800000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26869999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26869999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.29698000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.32500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.33939999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.35354999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.36769000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.41010000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.50911700000000004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.56599999999999995</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.65049999999999997</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$V$48:$V$96</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>1.7905546080000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2378116860000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.48381094159999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.703703704</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.703703704</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3503266209999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.6666666670000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.225806452</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.225806452</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.538461538</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.0303030299999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.7695934000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.9411764709999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-11.764705879999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.824352991</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.62824662080000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.7027027029999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.7027027029999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.6315789469999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.438429651E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.3809523810000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.2727272730000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.2222222220000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.2222222220000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.1666666670000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.7907475100000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.9215686270000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.818181818</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.0600706710000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.754385965</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.2786885250000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.6393442620000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.225806452</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.538461538</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-4.534973098</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.4492753620000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.7027027029999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.315789474</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-1EFD-4F72-8924-4FE19F2ADCA8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="131775887"/>
+        <c:axId val="123416895"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="131775887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Peak Current (A)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.45993226977813034"/>
+              <c:y val="0.94749728107191022"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="123416895"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="123416895"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>%Error</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="131775887"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>%Error vs Ideal</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Power</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.6775371828521436E-2"/>
+          <c:y val="0.17171296296296298"/>
+          <c:w val="0.88389129483814521"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AG$48:$AG$113</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>2.46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.65</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.68</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.69</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.72</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.74</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.79</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.83</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.86</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.89</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.99</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.05</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.05</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.22</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.32</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.34</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.38</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.41</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.48</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.52</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.55</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.55</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.57</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.62</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.63</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.67</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.77</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.81</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.92</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.96</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.07</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.08</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.09</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.22</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.38</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.42</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.78</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.84</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.93</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.97</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.99</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.04</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.07</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.12</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.16</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.17</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.29</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.74</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.77</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5.84</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.05</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.22</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AI$48:$AI$113</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.24</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.21</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.24</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.19</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-0.19</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.17</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-0.17</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-0.34</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-0.33</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-0.32</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-0.64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5202-47D9-A215-449C5121D28C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="131775887"/>
+        <c:axId val="123416895"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="131775887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Power (W)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.45993226977813034"/>
+              <c:y val="0.94749728107191022"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="123416895"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="123416895"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>%Error</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="131775887"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3741,6 +8101,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
   <cs:axisTitle>
@@ -5750,6 +10230,1512 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6432,6 +12418,118 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>46266</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>2722</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>250371</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>119744</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B78245DC-85DA-4383-9BC5-3D8C708A4627}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>115956</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>132523</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>121278</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>67327</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Chart 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D55D0F7-C6C2-4BA4-A322-AB8C704BA211}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>132522</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>96080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>137844</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>30884</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="Chart 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8B8D36E-7FE6-4B48-BA6A-5C1FDF96258D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6735,28 +12833,600 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4472C4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride2.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4472C4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB5D2BA0-9362-4A35-A13E-FD63B2012518}">
-  <dimension ref="A1:I147"/>
+  <dimension ref="A1:AI147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R87" sqref="R87"/>
+    <sheetView tabSelected="1" topLeftCell="L42" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R45" sqref="R45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.83984375" customWidth="1"/>
+    <col min="2" max="2" width="18.83984375" customWidth="1"/>
+    <col min="4" max="4" width="12.41796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.15625" customWidth="1"/>
+    <col min="7" max="7" width="14.578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" customWidth="1"/>
-    <col min="16" max="16" width="21.140625" customWidth="1"/>
-    <col min="17" max="17" width="19.28515625" customWidth="1"/>
+    <col min="15" max="15" width="18.68359375" customWidth="1"/>
+    <col min="16" max="16" width="21.15625" customWidth="1"/>
+    <col min="17" max="17" width="19.26171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -6764,7 +13434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>8.15</v>
       </c>
@@ -6772,7 +13442,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>13.9</v>
       </c>
@@ -6780,7 +13450,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>18.399999999999999</v>
       </c>
@@ -6788,7 +13458,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>21.1</v>
       </c>
@@ -6796,7 +13466,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>21.7</v>
       </c>
@@ -6804,7 +13474,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>20.100000000000001</v>
       </c>
@@ -6812,7 +13482,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>16.600000000000001</v>
       </c>
@@ -6820,7 +13490,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>11.5</v>
       </c>
@@ -6828,7 +13498,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>5.34</v>
       </c>
@@ -6836,7 +13506,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>-1.49</v>
       </c>
@@ -6844,7 +13514,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>-8.07</v>
       </c>
@@ -6852,7 +13522,7 @@
         <v>-0.06</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>-13.9</v>
       </c>
@@ -6860,7 +13530,7 @@
         <v>-0.14000000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>-18.399999999999999</v>
       </c>
@@ -6868,7 +13538,7 @@
         <v>-0.21</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>-21.1</v>
       </c>
@@ -6876,7 +13546,7 @@
         <v>-0.26</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>-21.6</v>
       </c>
@@ -6884,7 +13554,7 @@
         <v>-0.28000000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>-20.100000000000001</v>
       </c>
@@ -6892,7 +13562,7 @@
         <v>-0.27</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>-16.600000000000001</v>
       </c>
@@ -6900,7 +13570,7 @@
         <v>-0.24</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>-11.5</v>
       </c>
@@ -6908,7 +13578,7 @@
         <v>-0.18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>-5.27</v>
       </c>
@@ -6916,7 +13586,7 @@
         <v>-0.11</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>15.4</v>
       </c>
@@ -6927,7 +13597,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>3</v>
       </c>
@@ -6952,8 +13622,26 @@
       <c r="I47" t="s">
         <v>4</v>
       </c>
+      <c r="M47" t="s">
+        <v>9</v>
+      </c>
+      <c r="N47" t="s">
+        <v>10</v>
+      </c>
+      <c r="U47" t="s">
+        <v>11</v>
+      </c>
+      <c r="W47" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI47" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>15.8</v>
       </c>
@@ -6985,8 +13673,35 @@
         <f>ABS(H48-G48)</f>
         <v>7.0000000000000284E-2</v>
       </c>
+      <c r="M48" s="1">
+        <v>12.6</v>
+      </c>
+      <c r="N48">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U48" s="1">
+        <v>0.25455800000000001</v>
+      </c>
+      <c r="V48" s="1">
+        <v>1.7905546080000001</v>
+      </c>
+      <c r="W48" s="2">
+        <f>ROUND(V48,2)</f>
+        <v>1.79</v>
+      </c>
+      <c r="AG48" s="2">
+        <v>2.46</v>
+      </c>
+      <c r="AH48" s="1">
+        <v>0.40650406500000003</v>
+      </c>
+      <c r="AI48">
+        <f>ROUND(AH48,2)</f>
+        <v>0.41</v>
+      </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>15.3</v>
       </c>
@@ -7018,8 +13733,36 @@
         <f t="shared" ref="I49:I96" si="3">ABS(H49-G49)</f>
         <v>2.0000000000000018E-2</v>
       </c>
+      <c r="M49" s="1">
+        <v>12.6</v>
+      </c>
+      <c r="N49">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U49" s="1">
+        <v>0.26869999999999999</v>
+      </c>
+      <c r="V49" s="1">
+        <v>3.2378116860000001</v>
+      </c>
+      <c r="W49" s="2">
+        <f t="shared" ref="W49:W96" si="4">ROUND(V49,2)</f>
+        <v>3.24</v>
+      </c>
+      <c r="Y49" s="1"/>
+      <c r="AG49" s="2">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="AH49" s="1">
+        <v>0.80971659920000005</v>
+      </c>
+      <c r="AI49">
+        <f t="shared" ref="AI49:AI112" si="5">ROUND(AH49,2)</f>
+        <v>0.81</v>
+      </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>15.3</v>
       </c>
@@ -7051,8 +13794,36 @@
         <f t="shared" si="3"/>
         <v>3.0000000000000249E-2</v>
       </c>
+      <c r="M50" s="1">
+        <v>12.7</v>
+      </c>
+      <c r="N50">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U50" s="1">
+        <v>0.26869999999999999</v>
+      </c>
+      <c r="V50" s="1">
+        <v>-0.48381094159999999</v>
+      </c>
+      <c r="W50" s="2">
+        <f t="shared" si="4"/>
+        <v>-0.48</v>
+      </c>
+      <c r="Y50" s="1"/>
+      <c r="AG50" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AH50" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="AI50">
+        <f t="shared" si="5"/>
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>15.3</v>
       </c>
@@ -7084,8 +13855,35 @@
         <f t="shared" si="3"/>
         <v>3.0000000000000249E-2</v>
       </c>
+      <c r="M51" s="1">
+        <v>12.8</v>
+      </c>
+      <c r="N51">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U51" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="V51" s="1">
+        <v>3.703703704</v>
+      </c>
+      <c r="W51" s="2">
+        <f t="shared" si="4"/>
+        <v>3.7</v>
+      </c>
+      <c r="AG51" s="1">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="AH51" s="1">
+        <v>0.39525691699999999</v>
+      </c>
+      <c r="AI51">
+        <f t="shared" si="5"/>
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
         <v>15.3</v>
       </c>
@@ -7117,8 +13915,35 @@
         <f t="shared" si="3"/>
         <v>3.0000000000000249E-2</v>
       </c>
+      <c r="M52" s="1">
+        <v>12.8</v>
+      </c>
+      <c r="N52">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U52" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="V52" s="1">
+        <v>3.703703704</v>
+      </c>
+      <c r="W52" s="2">
+        <f t="shared" si="4"/>
+        <v>3.7</v>
+      </c>
+      <c r="AG52" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="AH52" s="1">
+        <v>0.7692307692</v>
+      </c>
+      <c r="AI52">
+        <f t="shared" si="5"/>
+        <v>0.77</v>
+      </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
         <v>15.3</v>
       </c>
@@ -7150,8 +13975,35 @@
         <f t="shared" si="3"/>
         <v>3.0000000000000249E-2</v>
       </c>
+      <c r="M53" s="1">
+        <v>12.9</v>
+      </c>
+      <c r="N53">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="V53" s="1">
+        <v>0</v>
+      </c>
+      <c r="W53" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG53" s="2">
+        <v>2.64</v>
+      </c>
+      <c r="AH53" s="1">
+        <v>0.75757575759999995</v>
+      </c>
+      <c r="AI53">
+        <f t="shared" si="5"/>
+        <v>0.76</v>
+      </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
         <v>15.3</v>
       </c>
@@ -7183,8 +14035,35 @@
         <f t="shared" si="3"/>
         <v>3.0000000000000249E-2</v>
       </c>
+      <c r="M54" s="1">
+        <v>12.9</v>
+      </c>
+      <c r="N54">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U54" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="V54" s="1">
+        <v>0</v>
+      </c>
+      <c r="W54" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG54" s="1">
+        <v>2.64</v>
+      </c>
+      <c r="AH54" s="1">
+        <v>0.37878787879999998</v>
+      </c>
+      <c r="AI54">
+        <f t="shared" si="5"/>
+        <v>0.38</v>
+      </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
         <v>15.3</v>
       </c>
@@ -7216,8 +14095,36 @@
         <f t="shared" si="3"/>
         <v>3.0000000000000249E-2</v>
       </c>
+      <c r="M55" s="1">
+        <v>12.9</v>
+      </c>
+      <c r="N55">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U55" s="1">
+        <v>0.29698000000000002</v>
+      </c>
+      <c r="V55" s="1">
+        <v>2.3503266209999998</v>
+      </c>
+      <c r="W55" s="2">
+        <f t="shared" si="4"/>
+        <v>2.35</v>
+      </c>
+      <c r="Y55" s="1"/>
+      <c r="AG55" s="1">
+        <v>2.64</v>
+      </c>
+      <c r="AH55" s="1">
+        <v>0.75757575759999995</v>
+      </c>
+      <c r="AI55">
+        <f t="shared" si="5"/>
+        <v>0.76</v>
+      </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
         <v>15.3</v>
       </c>
@@ -7249,8 +14156,35 @@
         <f t="shared" si="3"/>
         <v>3.0000000000000249E-2</v>
       </c>
+      <c r="M56" s="1">
+        <v>12.9</v>
+      </c>
+      <c r="N56">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U56" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="V56" s="1">
+        <v>0</v>
+      </c>
+      <c r="W56" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG56" s="3">
+        <v>2.65</v>
+      </c>
+      <c r="AH56" s="1">
+        <v>-0.64102564100000003</v>
+      </c>
+      <c r="AI56">
+        <f t="shared" si="5"/>
+        <v>-0.64</v>
+      </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
         <v>15.3</v>
       </c>
@@ -7282,8 +14216,35 @@
         <f t="shared" si="3"/>
         <v>3.0000000000000249E-2</v>
       </c>
+      <c r="M57" s="1">
+        <v>13</v>
+      </c>
+      <c r="N57">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U57" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="V57" s="1">
+        <v>6.6666666670000003</v>
+      </c>
+      <c r="W57" s="2">
+        <f t="shared" si="4"/>
+        <v>6.67</v>
+      </c>
+      <c r="AG57" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="AH57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
         <v>15.3</v>
       </c>
@@ -7315,8 +14276,35 @@
         <f t="shared" si="3"/>
         <v>3.0000000000000249E-2</v>
       </c>
+      <c r="M58" s="1">
+        <v>13</v>
+      </c>
+      <c r="N58">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U58" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="V58" s="1">
+        <v>0</v>
+      </c>
+      <c r="W58" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG58" s="3">
+        <v>2.69</v>
+      </c>
+      <c r="AH58" s="1">
+        <v>0.37174721189999999</v>
+      </c>
+      <c r="AI58">
+        <f t="shared" si="5"/>
+        <v>0.37</v>
+      </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
         <v>15.3</v>
       </c>
@@ -7348,8 +14336,35 @@
         <f t="shared" si="3"/>
         <v>3.0000000000000249E-2</v>
       </c>
+      <c r="M59" s="1">
+        <v>13.1</v>
+      </c>
+      <c r="N59">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U59" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="V59" s="1">
+        <v>3.225806452</v>
+      </c>
+      <c r="W59" s="2">
+        <f t="shared" si="4"/>
+        <v>3.23</v>
+      </c>
+      <c r="AG59" s="3">
+        <v>2.72</v>
+      </c>
+      <c r="AH59" s="1">
+        <v>0.36764705879999998</v>
+      </c>
+      <c r="AI59">
+        <f t="shared" si="5"/>
+        <v>0.37</v>
+      </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
         <v>15.3</v>
       </c>
@@ -7381,8 +14396,35 @@
         <f t="shared" si="3"/>
         <v>3.0000000000000249E-2</v>
       </c>
+      <c r="M60" s="1">
+        <v>13.1</v>
+      </c>
+      <c r="N60">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U60" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="V60" s="1">
+        <v>3.225806452</v>
+      </c>
+      <c r="W60" s="2">
+        <f t="shared" si="4"/>
+        <v>3.23</v>
+      </c>
+      <c r="AG60" s="3">
+        <v>2.74</v>
+      </c>
+      <c r="AH60" s="1">
+        <v>0.72992700730000004</v>
+      </c>
+      <c r="AI60">
+        <f t="shared" si="5"/>
+        <v>0.73</v>
+      </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
         <v>15.3</v>
       </c>
@@ -7414,8 +14456,35 @@
         <f t="shared" si="3"/>
         <v>3.0000000000000249E-2</v>
       </c>
+      <c r="M61" s="1">
+        <v>13.1</v>
+      </c>
+      <c r="N61">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="V61" s="1">
+        <v>0</v>
+      </c>
+      <c r="W61" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG61" s="3">
+        <v>2.79</v>
+      </c>
+      <c r="AH61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
         <v>15.3</v>
       </c>
@@ -7447,8 +14516,35 @@
         <f t="shared" si="3"/>
         <v>3.0000000000000249E-2</v>
       </c>
+      <c r="M62" s="1">
+        <v>13.2</v>
+      </c>
+      <c r="N62">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U62" s="1">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="V62" s="1">
+        <v>1.538461538</v>
+      </c>
+      <c r="W62" s="2">
+        <f t="shared" si="4"/>
+        <v>1.54</v>
+      </c>
+      <c r="AG62" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="AH62" s="1">
+        <v>0.35714285709999999</v>
+      </c>
+      <c r="AI62">
+        <f t="shared" si="5"/>
+        <v>0.36</v>
+      </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
         <v>14.9</v>
       </c>
@@ -7480,8 +14576,35 @@
         <f t="shared" si="3"/>
         <v>0.45000000000000018</v>
       </c>
+      <c r="M63" s="1">
+        <v>13.2</v>
+      </c>
+      <c r="N63">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U63" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="V63" s="1">
+        <v>3.0303030299999998</v>
+      </c>
+      <c r="W63" s="2">
+        <f t="shared" si="4"/>
+        <v>3.03</v>
+      </c>
+      <c r="AG63" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="AH63" s="1">
+        <v>0.35714285709999999</v>
+      </c>
+      <c r="AI63">
+        <f t="shared" si="5"/>
+        <v>0.36</v>
+      </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
         <v>15.3</v>
       </c>
@@ -7513,8 +14636,35 @@
         <f t="shared" si="3"/>
         <v>3.0000000000000249E-2</v>
       </c>
+      <c r="M64" s="1">
+        <v>13.3</v>
+      </c>
+      <c r="N64">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U64" s="1">
+        <v>0.33939999999999998</v>
+      </c>
+      <c r="V64" s="1">
+        <v>2.7695934000000002</v>
+      </c>
+      <c r="W64" s="2">
+        <f t="shared" si="4"/>
+        <v>2.77</v>
+      </c>
+      <c r="AG64" s="1">
+        <v>2.83</v>
+      </c>
+      <c r="AH64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
         <v>15.3</v>
       </c>
@@ -7546,8 +14696,35 @@
         <f t="shared" si="3"/>
         <v>3.0000000000000249E-2</v>
       </c>
+      <c r="M65" s="1">
+        <v>13.3</v>
+      </c>
+      <c r="N65">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U65" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="V65" s="1">
+        <v>2.9411764709999999</v>
+      </c>
+      <c r="W65" s="2">
+        <f t="shared" si="4"/>
+        <v>2.94</v>
+      </c>
+      <c r="AG65" s="2">
+        <v>2.86</v>
+      </c>
+      <c r="AH65" s="1">
+        <v>0.34965034969999997</v>
+      </c>
+      <c r="AI65">
+        <f t="shared" si="5"/>
+        <v>0.35</v>
+      </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
         <v>15.3</v>
       </c>
@@ -7579,8 +14756,35 @@
         <f t="shared" si="3"/>
         <v>3.0000000000000249E-2</v>
       </c>
+      <c r="M66" s="1">
+        <v>13.4</v>
+      </c>
+      <c r="N66">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U66" s="3">
+        <v>0.34</v>
+      </c>
+      <c r="V66" s="1">
+        <v>-11.764705879999999</v>
+      </c>
+      <c r="W66" s="2">
+        <f t="shared" si="4"/>
+        <v>-11.76</v>
+      </c>
+      <c r="AG66" s="1">
+        <v>2.89</v>
+      </c>
+      <c r="AH66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
         <v>15.3</v>
       </c>
@@ -7612,8 +14816,35 @@
         <f t="shared" si="3"/>
         <v>3.0000000000000249E-2</v>
       </c>
+      <c r="M67" s="1">
+        <v>13.4</v>
+      </c>
+      <c r="N67">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U67" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="V67" s="1">
+        <v>0</v>
+      </c>
+      <c r="W67" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG67" s="3">
+        <v>2.95</v>
+      </c>
+      <c r="AH67" s="1">
+        <v>0.33898305080000002</v>
+      </c>
+      <c r="AI67">
+        <f t="shared" si="5"/>
+        <v>0.34</v>
+      </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
         <v>15.3</v>
       </c>
@@ -7645,8 +14876,35 @@
         <f t="shared" si="3"/>
         <v>3.0000000000000249E-2</v>
       </c>
+      <c r="M68" s="1">
+        <v>13.4</v>
+      </c>
+      <c r="N68">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U68" s="1">
+        <v>0.35354999999999998</v>
+      </c>
+      <c r="V68" s="1">
+        <v>-1.824352991</v>
+      </c>
+      <c r="W68" s="2">
+        <f t="shared" si="4"/>
+        <v>-1.82</v>
+      </c>
+      <c r="AG68" s="2">
+        <v>2.99</v>
+      </c>
+      <c r="AH68" s="1">
+        <v>0.33444816049999998</v>
+      </c>
+      <c r="AI68">
+        <f t="shared" si="5"/>
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
         <v>15.3</v>
       </c>
@@ -7678,8 +14936,35 @@
         <f t="shared" si="3"/>
         <v>3.0000000000000249E-2</v>
       </c>
+      <c r="M69" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="N69">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U69" s="1">
+        <v>0.36769000000000002</v>
+      </c>
+      <c r="V69" s="1">
+        <v>-0.62824662080000004</v>
+      </c>
+      <c r="W69" s="2">
+        <f t="shared" si="4"/>
+        <v>-0.63</v>
+      </c>
+      <c r="AG69" s="1">
+        <v>3.05</v>
+      </c>
+      <c r="AH69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI69">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
         <v>15.2</v>
       </c>
@@ -7711,8 +14996,35 @@
         <f t="shared" si="3"/>
         <v>8.0000000000000071E-2</v>
       </c>
+      <c r="M70" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="N70">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U70" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="V70" s="1">
+        <v>2.7027027029999999</v>
+      </c>
+      <c r="W70" s="2">
+        <f t="shared" si="4"/>
+        <v>2.7</v>
+      </c>
+      <c r="AG70" s="3">
+        <v>3.05</v>
+      </c>
+      <c r="AH70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI70">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
         <v>15.3</v>
       </c>
@@ -7744,8 +15056,35 @@
         <f t="shared" si="3"/>
         <v>3.0000000000000249E-2</v>
       </c>
+      <c r="M71" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="N71">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U71" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="V71" s="1">
+        <v>2.7027027029999999</v>
+      </c>
+      <c r="W71" s="2">
+        <f t="shared" si="4"/>
+        <v>2.7</v>
+      </c>
+      <c r="AG71" s="2">
+        <v>3.22</v>
+      </c>
+      <c r="AH71" s="1">
+        <v>0.31055900619999999</v>
+      </c>
+      <c r="AI71">
+        <f t="shared" si="5"/>
+        <v>0.31</v>
+      </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
         <v>15.3</v>
       </c>
@@ -7777,8 +15116,35 @@
         <f t="shared" si="3"/>
         <v>3.0000000000000249E-2</v>
       </c>
+      <c r="M72" s="1">
+        <v>13.6</v>
+      </c>
+      <c r="N72">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U72" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="V72" s="1">
+        <v>2.6315789469999999</v>
+      </c>
+      <c r="W72" s="2">
+        <f t="shared" si="4"/>
+        <v>2.63</v>
+      </c>
+      <c r="AG72" s="2">
+        <v>3.24</v>
+      </c>
+      <c r="AH72" s="1">
+        <v>0.30864197529999998</v>
+      </c>
+      <c r="AI72">
+        <f t="shared" si="5"/>
+        <v>0.31</v>
+      </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A73">
         <v>15.3</v>
       </c>
@@ -7810,8 +15176,35 @@
         <f t="shared" si="3"/>
         <v>3.0000000000000249E-2</v>
       </c>
+      <c r="M73" s="1">
+        <v>13.6</v>
+      </c>
+      <c r="N73">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="V73" s="1">
+        <v>0</v>
+      </c>
+      <c r="W73" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG73" s="1">
+        <v>3.32</v>
+      </c>
+      <c r="AH73" s="1">
+        <v>0.60240963859999996</v>
+      </c>
+      <c r="AI73">
+        <f t="shared" si="5"/>
+        <v>0.6</v>
+      </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
         <v>15.3</v>
       </c>
@@ -7843,8 +15236,35 @@
         <f t="shared" si="3"/>
         <v>3.0000000000000249E-2</v>
       </c>
+      <c r="M74" s="1">
+        <v>13.7</v>
+      </c>
+      <c r="N74">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U74" s="1">
+        <v>0.41010000000000002</v>
+      </c>
+      <c r="V74" s="1">
+        <v>2.438429651E-2</v>
+      </c>
+      <c r="W74" s="2">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+      <c r="AG74" s="2">
+        <v>3.34</v>
+      </c>
+      <c r="AH74" s="1">
+        <v>0.2994011976</v>
+      </c>
+      <c r="AI74">
+        <f t="shared" si="5"/>
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
         <v>15.3</v>
       </c>
@@ -7876,8 +15296,35 @@
         <f t="shared" si="3"/>
         <v>3.0000000000000249E-2</v>
       </c>
+      <c r="M75" s="1">
+        <v>13.7</v>
+      </c>
+      <c r="N75">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U75" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="V75" s="1">
+        <v>2.3809523810000002</v>
+      </c>
+      <c r="W75" s="2">
+        <f t="shared" si="4"/>
+        <v>2.38</v>
+      </c>
+      <c r="AG75" s="2">
+        <v>3.38</v>
+      </c>
+      <c r="AH75" s="1">
+        <v>0.29585798819999998</v>
+      </c>
+      <c r="AI75">
+        <f t="shared" si="5"/>
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
         <v>15.3</v>
       </c>
@@ -7909,8 +15356,35 @@
         <f t="shared" si="3"/>
         <v>3.0000000000000249E-2</v>
       </c>
+      <c r="M76" s="1">
+        <v>13.7</v>
+      </c>
+      <c r="N76">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U76" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="V76" s="1">
+        <v>0</v>
+      </c>
+      <c r="W76" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG76" s="1">
+        <v>3.41</v>
+      </c>
+      <c r="AH76" s="1">
+        <v>0.29325513199999997</v>
+      </c>
+      <c r="AI76">
+        <f t="shared" si="5"/>
+        <v>0.28999999999999998</v>
+      </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A77">
         <v>15.3</v>
       </c>
@@ -7942,8 +15416,35 @@
         <f t="shared" si="3"/>
         <v>2.0000000000000018E-2</v>
       </c>
+      <c r="M77" s="1">
+        <v>13.8</v>
+      </c>
+      <c r="N77">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U77" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="V77" s="1">
+        <v>2.2727272730000001</v>
+      </c>
+      <c r="W77" s="2">
+        <f t="shared" si="4"/>
+        <v>2.27</v>
+      </c>
+      <c r="AG77" s="3">
+        <v>3.48</v>
+      </c>
+      <c r="AH77" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI77">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A78">
         <v>15.3</v>
       </c>
@@ -7975,8 +15476,35 @@
         <f t="shared" si="3"/>
         <v>3.0000000000000249E-2</v>
       </c>
+      <c r="M78" s="1">
+        <v>13.8</v>
+      </c>
+      <c r="N78">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U78" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="V78" s="1">
+        <v>0</v>
+      </c>
+      <c r="W78" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG78" s="3">
+        <v>3.52</v>
+      </c>
+      <c r="AH78" s="1">
+        <v>0.33898305080000002</v>
+      </c>
+      <c r="AI78">
+        <f t="shared" si="5"/>
+        <v>0.34</v>
+      </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A79">
         <v>15.3</v>
       </c>
@@ -8008,8 +15536,35 @@
         <f t="shared" si="3"/>
         <v>3.0000000000000249E-2</v>
       </c>
+      <c r="M79" s="1">
+        <v>13.9</v>
+      </c>
+      <c r="N79">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U79" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="V79" s="1">
+        <v>2.2222222220000001</v>
+      </c>
+      <c r="W79" s="2">
+        <f t="shared" si="4"/>
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="AG79" s="1">
+        <v>3.55</v>
+      </c>
+      <c r="AH79" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI79">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A80">
         <v>15.3</v>
       </c>
@@ -8041,8 +15596,35 @@
         <f t="shared" si="3"/>
         <v>3.0000000000000249E-2</v>
       </c>
+      <c r="M80" s="1">
+        <v>13.9</v>
+      </c>
+      <c r="N80">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U80" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="V80" s="1">
+        <v>2.2222222220000001</v>
+      </c>
+      <c r="W80" s="2">
+        <f t="shared" si="4"/>
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="AG80" s="3">
+        <v>3.55</v>
+      </c>
+      <c r="AH80" s="1">
+        <v>0.28169014079999999</v>
+      </c>
+      <c r="AI80">
+        <f t="shared" si="5"/>
+        <v>0.28000000000000003</v>
+      </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A81">
         <v>15.3</v>
       </c>
@@ -8074,8 +15656,35 @@
         <f t="shared" si="3"/>
         <v>3.0000000000000249E-2</v>
       </c>
+      <c r="M81" s="1">
+        <v>13.9</v>
+      </c>
+      <c r="N81">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U81" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="V81" s="1">
+        <v>4.1666666670000003</v>
+      </c>
+      <c r="W81" s="2">
+        <f t="shared" si="4"/>
+        <v>4.17</v>
+      </c>
+      <c r="AG81" s="3">
+        <v>3.57</v>
+      </c>
+      <c r="AH81" s="1">
+        <v>0.28011204480000002</v>
+      </c>
+      <c r="AI81">
+        <f t="shared" si="5"/>
+        <v>0.28000000000000003</v>
+      </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A82">
         <v>15.3</v>
       </c>
@@ -8107,8 +15716,35 @@
         <f t="shared" si="3"/>
         <v>3.0000000000000249E-2</v>
       </c>
+      <c r="M82" s="1">
+        <v>14</v>
+      </c>
+      <c r="N82">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U82" s="1">
+        <v>0.50911700000000004</v>
+      </c>
+      <c r="V82" s="1">
+        <v>1.7907475100000001</v>
+      </c>
+      <c r="W82" s="2">
+        <f t="shared" si="4"/>
+        <v>1.79</v>
+      </c>
+      <c r="AG82" s="3">
+        <v>3.62</v>
+      </c>
+      <c r="AH82" s="1">
+        <v>0.27624309390000001</v>
+      </c>
+      <c r="AI82">
+        <f t="shared" si="5"/>
+        <v>0.28000000000000003</v>
+      </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A83">
         <v>15.3</v>
       </c>
@@ -8140,8 +15776,35 @@
         <f t="shared" si="3"/>
         <v>3.0000000000000249E-2</v>
       </c>
+      <c r="M83" s="1">
+        <v>14</v>
+      </c>
+      <c r="N83">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U83" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="V83" s="1">
+        <v>3.9215686270000001</v>
+      </c>
+      <c r="W83" s="2">
+        <f t="shared" si="4"/>
+        <v>3.92</v>
+      </c>
+      <c r="AG83" s="3">
+        <v>3.63</v>
+      </c>
+      <c r="AH83" s="1">
+        <v>0.55096418729999996</v>
+      </c>
+      <c r="AI83">
+        <f t="shared" si="5"/>
+        <v>0.55000000000000004</v>
+      </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A84">
         <v>15.3</v>
       </c>
@@ -8173,8 +15836,35 @@
         <f t="shared" si="3"/>
         <v>3.0000000000000249E-2</v>
       </c>
+      <c r="M84" s="1">
+        <v>14</v>
+      </c>
+      <c r="N84">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U84" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="V84" s="1">
+        <v>0</v>
+      </c>
+      <c r="W84" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG84" s="2">
+        <v>3.67</v>
+      </c>
+      <c r="AH84" s="1">
+        <v>0.27247956400000001</v>
+      </c>
+      <c r="AI84">
+        <f t="shared" si="5"/>
+        <v>0.27</v>
+      </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A85">
         <v>15.3</v>
       </c>
@@ -8206,8 +15896,35 @@
         <f t="shared" si="3"/>
         <v>3.0000000000000249E-2</v>
       </c>
+      <c r="M85" s="1">
+        <v>14.1</v>
+      </c>
+      <c r="N85">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U85" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="V85" s="1">
+        <v>0</v>
+      </c>
+      <c r="W85" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG85" s="3">
+        <v>3.77</v>
+      </c>
+      <c r="AH85" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI85">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A86">
         <v>15.3</v>
       </c>
@@ -8239,8 +15956,35 @@
         <f t="shared" si="3"/>
         <v>3.0000000000000249E-2</v>
       </c>
+      <c r="M86" s="1">
+        <v>14.1</v>
+      </c>
+      <c r="N86">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="V86" s="1">
+        <v>1.818181818</v>
+      </c>
+      <c r="W86" s="2">
+        <f t="shared" si="4"/>
+        <v>1.82</v>
+      </c>
+      <c r="AG86" s="2">
+        <v>3.81</v>
+      </c>
+      <c r="AH86" s="1">
+        <v>0.26246719159999998</v>
+      </c>
+      <c r="AI86">
+        <f t="shared" si="5"/>
+        <v>0.26</v>
+      </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A87">
         <v>15.3</v>
       </c>
@@ -8272,8 +16016,35 @@
         <f t="shared" si="3"/>
         <v>3.0000000000000249E-2</v>
       </c>
+      <c r="M87" s="1">
+        <v>14.1</v>
+      </c>
+      <c r="N87">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U87" s="1">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="V87" s="1">
+        <v>1.0600706710000001</v>
+      </c>
+      <c r="W87" s="2">
+        <f t="shared" si="4"/>
+        <v>1.06</v>
+      </c>
+      <c r="AG87" s="1">
+        <v>3.92</v>
+      </c>
+      <c r="AH87" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI87">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A88">
         <v>15.3</v>
       </c>
@@ -8305,8 +16076,35 @@
         <f t="shared" si="3"/>
         <v>3.0000000000000249E-2</v>
       </c>
+      <c r="M88" s="1">
+        <v>14.2</v>
+      </c>
+      <c r="N88">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U88" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="V88" s="1">
+        <v>1.754385965</v>
+      </c>
+      <c r="W88" s="2">
+        <f t="shared" si="4"/>
+        <v>1.75</v>
+      </c>
+      <c r="AG88" s="2">
+        <v>3.96</v>
+      </c>
+      <c r="AH88" s="1">
+        <v>0.25252525250000002</v>
+      </c>
+      <c r="AI88">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A89">
         <v>15.3</v>
       </c>
@@ -8338,8 +16136,35 @@
         <f t="shared" si="3"/>
         <v>3.0000000000000249E-2</v>
       </c>
+      <c r="M89" s="1">
+        <v>14.2</v>
+      </c>
+      <c r="N89">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U89" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="V89" s="1">
+        <v>3.2786885250000002</v>
+      </c>
+      <c r="W89" s="2">
+        <f t="shared" si="4"/>
+        <v>3.28</v>
+      </c>
+      <c r="AG89" s="2">
+        <v>4</v>
+      </c>
+      <c r="AH89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI89">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A90">
         <v>15.3</v>
       </c>
@@ -8371,8 +16196,35 @@
         <f t="shared" si="3"/>
         <v>3.0000000000000249E-2</v>
       </c>
+      <c r="M90" s="1">
+        <v>14.3</v>
+      </c>
+      <c r="N90">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U90" s="3">
+        <v>0.61</v>
+      </c>
+      <c r="V90" s="1">
+        <v>1.6393442620000001</v>
+      </c>
+      <c r="W90" s="2">
+        <f t="shared" si="4"/>
+        <v>1.64</v>
+      </c>
+      <c r="AG90" s="3">
+        <v>4.07</v>
+      </c>
+      <c r="AH90" s="1">
+        <v>-0.24570024569999999</v>
+      </c>
+      <c r="AI90">
+        <f t="shared" si="5"/>
+        <v>-0.25</v>
+      </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A91">
         <v>15.3</v>
       </c>
@@ -8404,8 +16256,35 @@
         <f t="shared" si="3"/>
         <v>3.0000000000000249E-2</v>
       </c>
+      <c r="M91" s="1">
+        <v>14.3</v>
+      </c>
+      <c r="N91">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U91" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="V91" s="1">
+        <v>3.225806452</v>
+      </c>
+      <c r="W91" s="2">
+        <f t="shared" si="4"/>
+        <v>3.23</v>
+      </c>
+      <c r="AG91" s="2">
+        <v>4.08</v>
+      </c>
+      <c r="AH91" s="1">
+        <v>0.24509803920000001</v>
+      </c>
+      <c r="AI91">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A92">
         <v>15.2</v>
       </c>
@@ -8437,8 +16316,35 @@
         <f t="shared" si="3"/>
         <v>8.9999999999999858E-2</v>
       </c>
+      <c r="M92" s="1">
+        <v>14.3</v>
+      </c>
+      <c r="N92">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U92" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="V92" s="1">
+        <v>1.538461538</v>
+      </c>
+      <c r="W92" s="2">
+        <f t="shared" si="4"/>
+        <v>1.54</v>
+      </c>
+      <c r="AG92" s="3">
+        <v>4.09</v>
+      </c>
+      <c r="AH92" s="1">
+        <v>-0.24449877749999999</v>
+      </c>
+      <c r="AI92">
+        <f t="shared" si="5"/>
+        <v>-0.24</v>
+      </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A93">
         <v>15.3</v>
       </c>
@@ -8470,8 +16376,35 @@
         <f t="shared" si="3"/>
         <v>3.0000000000000249E-2</v>
       </c>
+      <c r="M93" s="1">
+        <v>14.4</v>
+      </c>
+      <c r="N93">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U93" s="1">
+        <v>0.65049999999999997</v>
+      </c>
+      <c r="V93" s="1">
+        <v>-4.534973098</v>
+      </c>
+      <c r="W93" s="2">
+        <f t="shared" si="4"/>
+        <v>-4.53</v>
+      </c>
+      <c r="AG93" s="2">
+        <v>4.22</v>
+      </c>
+      <c r="AH93" s="1">
+        <v>0.23696682459999999</v>
+      </c>
+      <c r="AI93">
+        <f t="shared" si="5"/>
+        <v>0.24</v>
+      </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A94">
         <v>15.3</v>
       </c>
@@ -8503,8 +16436,35 @@
         <f t="shared" si="3"/>
         <v>3.0000000000000249E-2</v>
       </c>
+      <c r="M94" s="1">
+        <v>14.4</v>
+      </c>
+      <c r="N94">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0.69</v>
+      </c>
+      <c r="V94" s="1">
+        <v>1.4492753620000001</v>
+      </c>
+      <c r="W94" s="2">
+        <f t="shared" si="4"/>
+        <v>1.45</v>
+      </c>
+      <c r="AG94" s="1">
+        <v>4.38</v>
+      </c>
+      <c r="AH94" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI94">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A95">
         <v>15.3</v>
       </c>
@@ -8536,8 +16496,35 @@
         <f t="shared" si="3"/>
         <v>2.0000000000000018E-2</v>
       </c>
+      <c r="M95" s="1">
+        <v>14.4</v>
+      </c>
+      <c r="N95">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U95" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="V95" s="1">
+        <v>2.7027027029999999</v>
+      </c>
+      <c r="W95" s="2">
+        <f t="shared" si="4"/>
+        <v>2.7</v>
+      </c>
+      <c r="AG95" s="2">
+        <v>4.42</v>
+      </c>
+      <c r="AH95" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI95">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A96">
         <v>15.3</v>
       </c>
@@ -8569,261 +16556,741 @@
         <f t="shared" si="3"/>
         <v>3.0000000000000249E-2</v>
       </c>
+      <c r="M96" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="N96">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U96" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="V96" s="1">
+        <v>1.315789474</v>
+      </c>
+      <c r="W96" s="2">
+        <f t="shared" si="4"/>
+        <v>1.32</v>
+      </c>
+      <c r="AG96" s="1">
+        <v>4.78</v>
+      </c>
+      <c r="AH96" s="1">
+        <v>-0.20920502090000001</v>
+      </c>
+      <c r="AI96">
+        <f t="shared" si="5"/>
+        <v>-0.21</v>
+      </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+      <c r="M97" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="N97">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="T97" s="3"/>
+      <c r="V97" s="1">
+        <v>2.7027027029999999</v>
+      </c>
+      <c r="AG97" s="2">
+        <v>4.84</v>
+      </c>
+      <c r="AH97" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI97">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>3</v>
       </c>
       <c r="B98" t="s">
         <v>5</v>
       </c>
+      <c r="M98" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="N98">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="T98" s="3"/>
+      <c r="V98" s="1">
+        <v>3.703703704</v>
+      </c>
+      <c r="AG98" s="2">
+        <v>4.93</v>
+      </c>
+      <c r="AH98" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI98">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="B99">
         <v>12.6</v>
       </c>
+      <c r="M99" s="1">
+        <v>14.6</v>
+      </c>
+      <c r="N99">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="T99" s="3"/>
+      <c r="V99" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG99" s="3">
+        <v>4.97</v>
+      </c>
+      <c r="AH99" s="1">
+        <v>-0.24449877749999999</v>
+      </c>
+      <c r="AI99">
+        <f t="shared" si="5"/>
+        <v>-0.24</v>
+      </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="B100">
         <v>12.6</v>
       </c>
+      <c r="M100" s="1">
+        <v>14.6</v>
+      </c>
+      <c r="N100">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="T100" s="3"/>
+      <c r="V100" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG100" s="2">
+        <v>4.99</v>
+      </c>
+      <c r="AH100" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="B101">
         <v>12.6</v>
       </c>
+      <c r="M101" s="1">
+        <v>14.6</v>
+      </c>
+      <c r="N101">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="T101" s="3"/>
+      <c r="V101" s="1">
+        <v>3.703703704</v>
+      </c>
+      <c r="AG101" s="3">
+        <v>5.04</v>
+      </c>
+      <c r="AH101" s="1">
+        <v>-0.24570024569999999</v>
+      </c>
+      <c r="AI101">
+        <f t="shared" si="5"/>
+        <v>-0.25</v>
+      </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="B102">
         <v>12.6</v>
       </c>
+      <c r="M102" s="1">
+        <v>14.7</v>
+      </c>
+      <c r="N102">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="T102" s="3"/>
+      <c r="V102" s="1">
+        <v>1.9607843140000001</v>
+      </c>
+      <c r="AG102" s="1">
+        <v>5.07</v>
+      </c>
+      <c r="AH102" s="1">
+        <v>-0.19723865879999999</v>
+      </c>
+      <c r="AI102">
+        <f t="shared" si="5"/>
+        <v>-0.2</v>
+      </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="B103">
         <v>12.6</v>
       </c>
+      <c r="M103" s="1">
+        <v>14.7</v>
+      </c>
+      <c r="N103">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="T103" s="3"/>
+      <c r="V103" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG103" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AH103" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI103">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="B104">
         <v>12.6</v>
       </c>
+      <c r="M104" s="1">
+        <v>14.7</v>
+      </c>
+      <c r="N104">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="T104" s="3"/>
+      <c r="V104" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG104" s="3">
+        <v>5.12</v>
+      </c>
+      <c r="AH104" s="1">
+        <v>-0.1953125</v>
+      </c>
+      <c r="AI104">
+        <f t="shared" si="5"/>
+        <v>-0.2</v>
+      </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="B105">
         <v>12.6</v>
       </c>
+      <c r="M105" s="1">
+        <v>14.8</v>
+      </c>
+      <c r="N105">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="T105" s="3"/>
+      <c r="V105" s="1">
+        <v>-2</v>
+      </c>
+      <c r="AG105" s="2">
+        <v>5.16</v>
+      </c>
+      <c r="AH105" s="1">
+        <v>-0.19379844960000001</v>
+      </c>
+      <c r="AI105">
+        <f t="shared" si="5"/>
+        <v>-0.19</v>
+      </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="B106">
         <v>12.6</v>
       </c>
+      <c r="M106" s="1">
+        <v>14.8</v>
+      </c>
+      <c r="N106">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="T106" s="3"/>
+      <c r="V106" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG106" s="3">
+        <v>5.17</v>
+      </c>
+      <c r="AH106" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI106">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="B107">
         <v>12.6</v>
       </c>
+      <c r="M107" s="1">
+        <v>14.8</v>
+      </c>
+      <c r="N107">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="T107" s="3"/>
+      <c r="V107" s="1">
+        <v>-4</v>
+      </c>
+      <c r="AG107" s="3">
+        <v>5.29</v>
+      </c>
+      <c r="AH107" s="1">
+        <v>-0.18903591680000001</v>
+      </c>
+      <c r="AI107">
+        <f t="shared" si="5"/>
+        <v>-0.19</v>
+      </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="B108">
         <v>12.6</v>
       </c>
+      <c r="M108" s="1">
+        <v>14.9</v>
+      </c>
+      <c r="N108">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="T108" s="3"/>
+      <c r="V108" s="1">
+        <v>-2</v>
+      </c>
+      <c r="AG108" s="3">
+        <v>5.74</v>
+      </c>
+      <c r="AH108" s="1">
+        <v>-0.17421602789999999</v>
+      </c>
+      <c r="AI108">
+        <f t="shared" si="5"/>
+        <v>-0.17</v>
+      </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="B109">
         <v>12.6</v>
       </c>
+      <c r="M109" s="1">
+        <v>14.9</v>
+      </c>
+      <c r="N109">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="T109" s="3"/>
+      <c r="V109" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG109" s="2">
+        <v>5.77</v>
+      </c>
+      <c r="AH109" s="1">
+        <v>-0.17331022530000001</v>
+      </c>
+      <c r="AI109">
+        <f t="shared" si="5"/>
+        <v>-0.17</v>
+      </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="B110">
         <v>12.6</v>
       </c>
+      <c r="M110" s="1">
+        <v>14.9</v>
+      </c>
+      <c r="N110">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="T110" s="3"/>
+      <c r="V110" s="1">
+        <v>-4</v>
+      </c>
+      <c r="AG110" s="1">
+        <v>5.84</v>
+      </c>
+      <c r="AH110" s="1">
+        <v>-0.34246575340000002</v>
+      </c>
+      <c r="AI110">
+        <f t="shared" si="5"/>
+        <v>-0.34</v>
+      </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="B111">
         <v>12.6</v>
       </c>
+      <c r="M111" s="1">
+        <v>15</v>
+      </c>
+      <c r="N111">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="T111" s="3"/>
+      <c r="V111" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG111" s="1">
+        <v>6.05</v>
+      </c>
+      <c r="AH111" s="1">
+        <v>-0.33057851240000002</v>
+      </c>
+      <c r="AI111">
+        <f t="shared" si="5"/>
+        <v>-0.33</v>
+      </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="B112">
         <v>12.6</v>
       </c>
+      <c r="M112" s="1">
+        <v>15</v>
+      </c>
+      <c r="N112">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="T112" s="3"/>
+      <c r="V112" s="1">
+        <v>-2.9411764709999999</v>
+      </c>
+      <c r="AG112" s="2">
+        <v>6.22</v>
+      </c>
+      <c r="AH112" s="1">
+        <v>-0.32154340840000001</v>
+      </c>
+      <c r="AI112">
+        <f t="shared" si="5"/>
+        <v>-0.32</v>
+      </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:35" x14ac:dyDescent="0.55000000000000004">
       <c r="B113">
         <v>12.6</v>
       </c>
+      <c r="M113" s="1">
+        <v>15</v>
+      </c>
+      <c r="N113">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="T113" s="1"/>
+      <c r="V113" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG113" s="3">
+        <v>6.24</v>
+      </c>
+      <c r="AH113" s="1">
+        <v>-0.64102564100000003</v>
+      </c>
+      <c r="AI113">
+        <f t="shared" ref="AI113" si="6">ROUND(AH113,2)</f>
+        <v>-0.64</v>
+      </c>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:35" x14ac:dyDescent="0.55000000000000004">
       <c r="B114">
         <v>12.6</v>
       </c>
+      <c r="M114" s="1">
+        <v>15.1</v>
+      </c>
+      <c r="N114">
+        <f>0</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:35" x14ac:dyDescent="0.55000000000000004">
       <c r="B115">
         <v>12.6</v>
       </c>
+      <c r="M115" s="1">
+        <v>15.1</v>
+      </c>
+      <c r="N115">
+        <f>0</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:35" x14ac:dyDescent="0.55000000000000004">
       <c r="B116">
         <v>12.6</v>
       </c>
+      <c r="M116" s="1">
+        <v>15.1</v>
+      </c>
+      <c r="N116">
+        <f>0</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:35" x14ac:dyDescent="0.55000000000000004">
       <c r="B117">
         <v>12.6</v>
       </c>
+      <c r="M117" s="1">
+        <v>15.2</v>
+      </c>
+      <c r="N117">
+        <f>0</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:35" x14ac:dyDescent="0.55000000000000004">
       <c r="B118">
         <v>12.6</v>
       </c>
+      <c r="M118" s="1">
+        <v>15.2</v>
+      </c>
+      <c r="N118">
+        <f>0</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:35" x14ac:dyDescent="0.55000000000000004">
       <c r="B119">
         <v>12.6</v>
       </c>
+      <c r="M119" s="1">
+        <v>15.2</v>
+      </c>
+      <c r="N119">
+        <f>0</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:35" x14ac:dyDescent="0.55000000000000004">
       <c r="B120">
         <v>12.6</v>
       </c>
+      <c r="M120" s="1">
+        <v>15.3</v>
+      </c>
+      <c r="N120">
+        <f>0</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:35" x14ac:dyDescent="0.55000000000000004">
       <c r="B121">
         <v>12.6</v>
       </c>
+      <c r="M121" s="1">
+        <v>15.3</v>
+      </c>
+      <c r="N121">
+        <f>0</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:35" x14ac:dyDescent="0.55000000000000004">
       <c r="B122">
         <v>12.6</v>
       </c>
+      <c r="M122" s="1">
+        <v>15.3</v>
+      </c>
+      <c r="N122">
+        <f>0</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:35" x14ac:dyDescent="0.55000000000000004">
       <c r="B123">
         <v>12.6</v>
       </c>
+      <c r="M123" s="1">
+        <v>15.3</v>
+      </c>
+      <c r="N123">
+        <f>0</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:35" x14ac:dyDescent="0.55000000000000004">
       <c r="B124">
         <v>12.6</v>
       </c>
+      <c r="M124" s="1">
+        <v>15.4</v>
+      </c>
+      <c r="N124">
+        <f>0</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:35" x14ac:dyDescent="0.55000000000000004">
       <c r="B125">
         <v>12.6</v>
       </c>
+      <c r="M125" s="1">
+        <v>15.4</v>
+      </c>
+      <c r="N125">
+        <f>0</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:35" x14ac:dyDescent="0.55000000000000004">
       <c r="B126">
         <v>12.6</v>
       </c>
+      <c r="M126" s="1">
+        <v>15.4</v>
+      </c>
+      <c r="N126">
+        <f>0</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:35" x14ac:dyDescent="0.55000000000000004">
       <c r="B127">
         <v>12.6</v>
       </c>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:35" x14ac:dyDescent="0.55000000000000004">
       <c r="B128">
         <v>12.6</v>
       </c>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B129">
         <v>12.6</v>
       </c>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B130">
         <v>12.6</v>
       </c>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B131">
         <v>12.6</v>
       </c>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B132">
         <v>12.6</v>
       </c>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B133">
         <v>12.6</v>
       </c>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B134">
         <v>12.6</v>
       </c>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B135">
         <v>12.6</v>
       </c>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B136">
         <v>12.6</v>
       </c>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B137">
         <v>12.6</v>
       </c>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B138">
         <v>12.6</v>
       </c>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B139">
         <v>12.6</v>
       </c>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B140">
         <v>12.6</v>
       </c>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B141">
         <v>12.6</v>
       </c>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B142">
         <v>12.6</v>
       </c>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B143">
         <v>12.6</v>
       </c>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B144">
         <v>12.6</v>
       </c>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B145">
         <v>12.6</v>
       </c>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B146">
         <v>12.6</v>
       </c>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B147">
         <v>12.6</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="U48:V96">
+    <sortCondition ref="U48:U96"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Graphs for Report.xlsx
+++ b/Graphs for Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\GitHub\ee209-2020-project-team02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Krithik\Documents\GitHub\ee209-2020-project-team02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3EA6FE8-C435-4ECA-A7E3-5BCD3525FD0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9641767C-0FE7-4824-A580-81273AF9298B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{6D31E458-EF34-49A4-9E1D-C32283C7CB9A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D31E458-EF34-49A4-9E1D-C32283C7CB9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -194,7 +194,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-NZ"/>
-              <a:t>ADC Voltage</a:t>
+              <a:t>ADC Voltage @ 50Hz</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -747,7 +747,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-NZ"/>
-              <a:t>ADC Current</a:t>
+              <a:t>ADC Current @ 50Hz</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -13409,24 +13409,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB5D2BA0-9362-4A35-A13E-FD63B2012518}">
   <dimension ref="A1:AI147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L42" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R45" sqref="R45"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.83984375" customWidth="1"/>
-    <col min="2" max="2" width="18.83984375" customWidth="1"/>
-    <col min="4" max="4" width="12.41796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.15625" customWidth="1"/>
-    <col min="7" max="7" width="14.578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="15" max="15" width="18.68359375" customWidth="1"/>
-    <col min="16" max="16" width="21.15625" customWidth="1"/>
-    <col min="17" max="17" width="19.26171875" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" customWidth="1"/>
+    <col min="16" max="16" width="21.140625" customWidth="1"/>
+    <col min="17" max="17" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -13434,7 +13434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>8.15</v>
       </c>
@@ -13442,7 +13442,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>13.9</v>
       </c>
@@ -13450,7 +13450,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>18.399999999999999</v>
       </c>
@@ -13458,7 +13458,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>21.1</v>
       </c>
@@ -13466,7 +13466,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>21.7</v>
       </c>
@@ -13474,7 +13474,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>20.100000000000001</v>
       </c>
@@ -13482,7 +13482,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>16.600000000000001</v>
       </c>
@@ -13490,7 +13490,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>11.5</v>
       </c>
@@ -13498,7 +13498,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5.34</v>
       </c>
@@ -13506,7 +13506,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-1.49</v>
       </c>
@@ -13514,7 +13514,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-8.07</v>
       </c>
@@ -13522,7 +13522,7 @@
         <v>-0.06</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-13.9</v>
       </c>
@@ -13530,7 +13530,7 @@
         <v>-0.14000000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-18.399999999999999</v>
       </c>
@@ -13538,7 +13538,7 @@
         <v>-0.21</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-21.1</v>
       </c>
@@ -13546,7 +13546,7 @@
         <v>-0.26</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-21.6</v>
       </c>
@@ -13554,7 +13554,7 @@
         <v>-0.28000000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-20.100000000000001</v>
       </c>
@@ -13562,7 +13562,7 @@
         <v>-0.27</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-16.600000000000001</v>
       </c>
@@ -13570,7 +13570,7 @@
         <v>-0.24</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-11.5</v>
       </c>
@@ -13578,7 +13578,7 @@
         <v>-0.18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-5.27</v>
       </c>
@@ -13586,7 +13586,7 @@
         <v>-0.11</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>15.4</v>
       </c>
@@ -13597,7 +13597,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>3</v>
       </c>
@@ -13641,7 +13641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>15.8</v>
       </c>
@@ -13701,7 +13701,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>15.3</v>
       </c>
@@ -13762,7 +13762,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>15.3</v>
       </c>
@@ -13823,7 +13823,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>15.3</v>
       </c>
@@ -13883,7 +13883,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>15.3</v>
       </c>
@@ -13943,7 +13943,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>15.3</v>
       </c>
@@ -14003,7 +14003,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>15.3</v>
       </c>
@@ -14063,7 +14063,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>15.3</v>
       </c>
@@ -14124,7 +14124,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>15.3</v>
       </c>
@@ -14184,7 +14184,7 @@
         <v>-0.64</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>15.3</v>
       </c>
@@ -14244,7 +14244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>15.3</v>
       </c>
@@ -14304,7 +14304,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>15.3</v>
       </c>
@@ -14364,7 +14364,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>15.3</v>
       </c>
@@ -14424,7 +14424,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>15.3</v>
       </c>
@@ -14484,7 +14484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>15.3</v>
       </c>
@@ -14544,7 +14544,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>14.9</v>
       </c>
@@ -14604,7 +14604,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>15.3</v>
       </c>
@@ -14664,7 +14664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>15.3</v>
       </c>
@@ -14724,7 +14724,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>15.3</v>
       </c>
@@ -14784,7 +14784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>15.3</v>
       </c>
@@ -14844,7 +14844,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>15.3</v>
       </c>
@@ -14904,7 +14904,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>15.3</v>
       </c>
@@ -14964,7 +14964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>15.2</v>
       </c>
@@ -15024,7 +15024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>15.3</v>
       </c>
@@ -15084,7 +15084,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>15.3</v>
       </c>
@@ -15144,7 +15144,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>15.3</v>
       </c>
@@ -15204,7 +15204,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>15.3</v>
       </c>
@@ -15264,7 +15264,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>15.3</v>
       </c>
@@ -15324,7 +15324,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>15.3</v>
       </c>
@@ -15384,7 +15384,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>15.3</v>
       </c>
@@ -15444,7 +15444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>15.3</v>
       </c>
@@ -15504,7 +15504,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>15.3</v>
       </c>
@@ -15564,7 +15564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>15.3</v>
       </c>
@@ -15624,7 +15624,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>15.3</v>
       </c>
@@ -15684,7 +15684,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>15.3</v>
       </c>
@@ -15744,7 +15744,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>15.3</v>
       </c>
@@ -15804,7 +15804,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>15.3</v>
       </c>
@@ -15864,7 +15864,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>15.3</v>
       </c>
@@ -15924,7 +15924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>15.3</v>
       </c>
@@ -15984,7 +15984,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="87" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>15.3</v>
       </c>
@@ -16044,7 +16044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>15.3</v>
       </c>
@@ -16104,7 +16104,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="89" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>15.3</v>
       </c>
@@ -16164,7 +16164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>15.3</v>
       </c>
@@ -16224,7 +16224,7 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="91" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>15.3</v>
       </c>
@@ -16284,7 +16284,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="92" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>15.2</v>
       </c>
@@ -16344,7 +16344,7 @@
         <v>-0.24</v>
       </c>
     </row>
-    <row r="93" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>15.3</v>
       </c>
@@ -16404,7 +16404,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="94" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>15.3</v>
       </c>
@@ -16464,7 +16464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>15.3</v>
       </c>
@@ -16524,7 +16524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>15.3</v>
       </c>
@@ -16584,7 +16584,7 @@
         <v>-0.21</v>
       </c>
     </row>
-    <row r="97" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:35" x14ac:dyDescent="0.25">
       <c r="M97" s="1">
         <v>14.5</v>
       </c>
@@ -16607,7 +16607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>3</v>
       </c>
@@ -16636,7 +16636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>12.6</v>
       </c>
@@ -16662,7 +16662,7 @@
         <v>-0.24</v>
       </c>
     </row>
-    <row r="100" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>12.6</v>
       </c>
@@ -16688,7 +16688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>12.6</v>
       </c>
@@ -16714,7 +16714,7 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="102" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B102">
         <v>12.6</v>
       </c>
@@ -16740,7 +16740,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="103" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B103">
         <v>12.6</v>
       </c>
@@ -16766,7 +16766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B104">
         <v>12.6</v>
       </c>
@@ -16792,7 +16792,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="105" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B105">
         <v>12.6</v>
       </c>
@@ -16818,7 +16818,7 @@
         <v>-0.19</v>
       </c>
     </row>
-    <row r="106" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B106">
         <v>12.6</v>
       </c>
@@ -16844,7 +16844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B107">
         <v>12.6</v>
       </c>
@@ -16870,7 +16870,7 @@
         <v>-0.19</v>
       </c>
     </row>
-    <row r="108" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B108">
         <v>12.6</v>
       </c>
@@ -16896,7 +16896,7 @@
         <v>-0.17</v>
       </c>
     </row>
-    <row r="109" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B109">
         <v>12.6</v>
       </c>
@@ -16922,7 +16922,7 @@
         <v>-0.17</v>
       </c>
     </row>
-    <row r="110" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B110">
         <v>12.6</v>
       </c>
@@ -16948,7 +16948,7 @@
         <v>-0.34</v>
       </c>
     </row>
-    <row r="111" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B111">
         <v>12.6</v>
       </c>
@@ -16974,7 +16974,7 @@
         <v>-0.33</v>
       </c>
     </row>
-    <row r="112" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B112">
         <v>12.6</v>
       </c>
@@ -17000,7 +17000,7 @@
         <v>-0.32</v>
       </c>
     </row>
-    <row r="113" spans="2:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B113">
         <v>12.6</v>
       </c>
@@ -17026,7 +17026,7 @@
         <v>-0.64</v>
       </c>
     </row>
-    <row r="114" spans="2:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B114">
         <v>12.6</v>
       </c>
@@ -17038,7 +17038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B115">
         <v>12.6</v>
       </c>
@@ -17050,7 +17050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="2:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B116">
         <v>12.6</v>
       </c>
@@ -17062,7 +17062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="2:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B117">
         <v>12.6</v>
       </c>
@@ -17074,7 +17074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B118">
         <v>12.6</v>
       </c>
@@ -17086,7 +17086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="2:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B119">
         <v>12.6</v>
       </c>
@@ -17098,7 +17098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="2:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B120">
         <v>12.6</v>
       </c>
@@ -17110,7 +17110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B121">
         <v>12.6</v>
       </c>
@@ -17122,7 +17122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="2:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B122">
         <v>12.6</v>
       </c>
@@ -17134,7 +17134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B123">
         <v>12.6</v>
       </c>
@@ -17146,7 +17146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="2:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B124">
         <v>12.6</v>
       </c>
@@ -17158,7 +17158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="2:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B125">
         <v>12.6</v>
       </c>
@@ -17170,7 +17170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="2:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B126">
         <v>12.6</v>
       </c>
@@ -17182,107 +17182,107 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="2:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B127">
         <v>12.6</v>
       </c>
     </row>
-    <row r="128" spans="2:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B128">
         <v>12.6</v>
       </c>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B129">
         <v>12.6</v>
       </c>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B130">
         <v>12.6</v>
       </c>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B131">
         <v>12.6</v>
       </c>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B132">
         <v>12.6</v>
       </c>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B133">
         <v>12.6</v>
       </c>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B134">
         <v>12.6</v>
       </c>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B135">
         <v>12.6</v>
       </c>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B136">
         <v>12.6</v>
       </c>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B137">
         <v>12.6</v>
       </c>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B138">
         <v>12.6</v>
       </c>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B139">
         <v>12.6</v>
       </c>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B140">
         <v>12.6</v>
       </c>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B141">
         <v>12.6</v>
       </c>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B142">
         <v>12.6</v>
       </c>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143">
         <v>12.6</v>
       </c>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144">
         <v>12.6</v>
       </c>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B145">
         <v>12.6</v>
       </c>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B146">
         <v>12.6</v>
       </c>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147">
         <v>12.6</v>
       </c>
